--- a/biology/Zoologie/Cyclophora_annularia/Cyclophora_annularia.xlsx
+++ b/biology/Zoologie/Cyclophora_annularia/Cyclophora_annularia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalène mariée, Éphyre omicron
 Cyclophora annularia, la Phalène mariée ou Éphyre omicron, est un lépidoptère (papillon) de la famille des Geometridae et de la sous-famille des Sterrhinae.
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Phalène mariée ou Éphyre omicron a été nommée Cyclophora annularia par Fabricius, en 1775.Synonyme : Cyclophora annulata (Schulze).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure de 18 à 22 mm.
 </t>
@@ -574,7 +590,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, on la trouve depuis l'ouest de l'Europe jusqu'en Iran. Presque partout en France sauf l'extrême ouest, le sud-ouest.
 </t>
@@ -605,7 +623,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bois de feuillus notamment hêtraies avec érables, haies, coteaux calcaires.
 </t>
@@ -636,10 +656,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les imagos volent d'avril à juin puis de juillet à septembre en 2 générations.
-Les chenilles sont vertes, leur tête est brune avec des dessins clairs. Il existe aussi des chenilles brunes[1]. Elles se nourrissent d'érables (Acer campestre, Acer pseudoplatanus, Acer platanoides), de bouleaux (Betula).
+Les chenilles sont vertes, leur tête est brune avec des dessins clairs. Il existe aussi des chenilles brunes. Elles se nourrissent d'érables (Acer campestre, Acer pseudoplatanus, Acer platanoides), de bouleaux (Betula).
 C'est la chrysalide qui hiverne.
 </t>
         </is>
